--- a/test/resources/Supplier Test Cases/LIMS system test cases  - consuming requests & sending reports.xlsx
+++ b/test/resources/Supplier Test Cases/LIMS system test cases  - consuming requests & sending reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="18930" windowHeight="7665" tabRatio="861"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="18930" windowHeight="7665" tabRatio="861" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Index LIMS" sheetId="1" r:id="rId1"/>
@@ -1908,64 +1908,6 @@
   </si>
   <si>
     <t>A LIMS system should be able to send a  'Pathology Test Request Summary' FHIR message for a single + multiple specimens test coming from the same request</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The (Full blood count, Electrolytes &amp; Creatinine Profile, Cholesterol &amp; Triglycerides Profile, Urine Albumin &amp; Urine Profile,  Glycated Haemoglobiin) test has been performed and results are recorded in LIMS with </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory fields</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> only </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (please refer to: https://developer.nhs.uk/apis/itk3nationalpathology-1-0-0/explore_test_result_observation.html for mandatory fields</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
   </si>
   <si>
     <t>A test request summary has been generated for the test report above in LIMS</t>
@@ -7865,6 +7807,64 @@
   </si>
   <si>
     <t>Observation 35</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The (Full blood count, Electrolytes &amp; Creatinine Profile, Cholesterol &amp; Triglycerides Profile, Urine Albumin &amp; Urine Profile,  Glycated Haemoglobiin) test has been performed and results are recorded in LIMS with </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory &amp; optional fields</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (please refer to: https://developer.nhs.uk/apis/itk3nationalpathology-1-0-0/explore_test_result_observation.html for mandatory fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10921,7 +10921,7 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11090,18 +11090,6 @@
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -11125,6 +11113,30 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2179">
@@ -13663,8 +13675,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13681,29 +13693,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="A1" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:35" s="25" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -13758,7 +13770,7 @@
     </row>
     <row r="5" spans="1:35" s="30" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>34</v>
@@ -13767,7 +13779,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="35" t="str">
         <f t="shared" ref="E5:E20" si="0">(LEFT(A5,3)&amp;". "&amp;C5)</f>
@@ -13782,7 +13794,7 @@
     </row>
     <row r="6" spans="1:35" s="30" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>34</v>
@@ -13791,7 +13803,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="35" t="str">
         <f t="shared" si="0"/>
@@ -13806,7 +13818,7 @@
     </row>
     <row r="7" spans="1:35" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>34</v>
@@ -13815,22 +13827,22 @@
         <v>103</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="35" t="str">
         <f t="shared" si="0"/>
         <v>LIM. LIMS sending a 'Pathology Test Request Summary' FHIR message  for a single standalone test ("Prostate Specific Antigen") to FHIR Server - Mandatory fields only</v>
       </c>
       <c r="F7" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>34</v>
@@ -13839,124 +13851,124 @@
         <v>104</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">LIM. LIMS sending a 'Pathology Test Request Summary' FHIR message  for a single standalone test ("Prostate Specific Antigen") to FHIR Server - Mandatory + optional fields </v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="30" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="E9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>LIM. LIMS Sending 'Pathology Report' FHIR message  for a test panel/profiles of tests (Electrolytes and Creatinine Profile) to FHIR test server - Mandatory fields only</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" s="35" t="str">
         <f t="shared" si="0"/>
         <v>LIM. LIMS Sending 'Pathology Report' FHIR message  for a test panel/profiles of tests (Electrolytes and Creatinine Profile) to FHIR test server - Mandatory + optional fields</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">LIM. LIMS sending a 'Pathology Test Request Summary' FHIR message  for a test panel/profile of tests (Electrolytes and Creatinine Profile) to FHIR Server - Mandatory fields only </v>
       </c>
       <c r="F11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">LIM. LIMS sending a 'Pathology Test Request Summary' FHIR message  for a test panel/profile of tests (Electrolytes and Creatinine Profile) to FHIR Server - Mandatory fields + optional fields </v>
       </c>
       <c r="F12" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="30" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>28</v>
@@ -13966,63 +13978,63 @@
         <v>LIM. LIMS sending a 'Pathology Report' FHIR message with status of 'partial/interim' for 'Prostate Specific Antigen'  to FHIR Server</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:35" s="30" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="35" t="str">
         <f t="shared" si="0"/>
         <v>LIM. LIMS sending a 'Pathology Report' FHIR message with status of 'Uknown' for 'Prostate Specific Antigen' to FHIR Server</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="30" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="35" t="str">
         <f t="shared" si="0"/>
         <v>LIM. LIMS Sending a 'Pathology Report' FHIR message with status of 'Final' for a 'Prostate Specific Antigen'  to FHIR Server</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>34</v>
@@ -14039,15 +14051,15 @@
 LIMS sending a 'Pathology Report' FHIR message with 'Unable to perform test' (damaged 'Prostrate antigen' specimen)' status for a single test</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>35</v>
@@ -14056,7 +14068,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="35" t="str">
         <f t="shared" si="0"/>
@@ -14064,15 +14076,15 @@
 LIMS sending an 'Pathology Report' FHIR message with 'Unable to perform test' (damaged '(Electrolytes and Creatinine Profile' specimen)' status for a panel test</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="30" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>111</v>
@@ -14081,7 +14093,7 @@
         <v>118</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="35" t="str">
         <f t="shared" si="0"/>
@@ -14089,37 +14101,37 @@
 </v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:10" s="37" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">LIM. LIMS sending a 'Patholoy Report' FHIR message for multiple specimens (i.e set of single standalone tests + multiple tests) - FBC + Urine (Mandatory fields only) </v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="37" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>121</v>
@@ -14128,40 +14140,40 @@
         <v>112</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="35" t="str">
         <f t="shared" si="0"/>
         <v>LIM. LIMS sending a 'Pathology Test Request Summary' FHIR message for multiple specimens (i.e set of single standalone tests + multiple tests) - FBC + Urine (Mandatory fields only)</v>
       </c>
       <c r="F20" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="29" t="s">
+    </row>
+    <row r="21" spans="1:10" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>171</v>
+      <c r="E21" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -14344,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>83</v>
@@ -14355,7 +14367,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -14378,7 +14390,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -14428,7 +14440,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -14440,7 +14452,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -14452,7 +14464,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -14464,7 +14476,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -14476,7 +14488,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -14488,7 +14500,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -14497,10 +14509,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -14512,7 +14524,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -14524,7 +14536,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -14533,10 +14545,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -14548,7 +14560,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -14560,7 +14572,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -14572,7 +14584,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -14584,7 +14596,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -14596,7 +14608,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -14605,10 +14617,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -14617,10 +14629,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -14632,7 +14644,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -14644,7 +14656,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -14657,37 +14669,37 @@
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="63">
+        <v>285</v>
+      </c>
+      <c r="D32" s="59">
         <v>119364003</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>289</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -14776,10 +14788,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14799,7 +14811,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>80</v>
@@ -14834,7 +14846,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>80</v>
@@ -14849,7 +14861,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -14861,7 +14873,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -14873,7 +14885,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -14885,7 +14897,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -14897,7 +14909,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -14909,7 +14921,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -14921,7 +14933,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -14933,7 +14945,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -14945,7 +14957,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -14954,10 +14966,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -14969,7 +14981,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -14981,7 +14993,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -14993,7 +15005,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -15005,7 +15017,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -15017,7 +15029,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -15026,10 +15038,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -15038,10 +15050,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -15053,7 +15065,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -15065,7 +15077,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -15079,36 +15091,36 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="63">
+        <v>285</v>
+      </c>
+      <c r="D32" s="59">
         <v>119364003</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>289</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -15222,7 +15234,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -15245,7 +15257,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -15280,7 +15292,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>80</v>
@@ -15295,7 +15307,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -15307,7 +15319,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -15319,7 +15331,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -15331,7 +15343,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -15343,7 +15355,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -15355,7 +15367,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -15364,10 +15376,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -15379,7 +15391,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -15391,7 +15403,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -15400,10 +15412,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -15415,7 +15427,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -15427,7 +15439,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -15439,7 +15451,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -15451,7 +15463,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -15463,7 +15475,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -15472,10 +15484,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -15484,10 +15496,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -15499,7 +15511,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -15511,7 +15523,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -15525,36 +15537,36 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="63">
+        <v>285</v>
+      </c>
+      <c r="D32" s="59">
         <v>119364003</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>289</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -15665,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -15701,7 +15713,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>80</v>
@@ -15736,7 +15748,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>80</v>
@@ -15751,7 +15763,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -15763,7 +15775,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -15775,7 +15787,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -15787,7 +15799,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -15799,7 +15811,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -15811,7 +15823,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -15820,10 +15832,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -15835,7 +15847,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -15847,7 +15859,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -15856,10 +15868,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -15871,7 +15883,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -15883,7 +15895,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -15895,7 +15907,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -15907,7 +15919,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -15919,7 +15931,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -15931,7 +15943,7 @@
         <v>114</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -15940,10 +15952,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -15955,7 +15967,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -15967,7 +15979,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -15981,36 +15993,36 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="63">
+        <v>285</v>
+      </c>
+      <c r="D33" s="59">
         <v>119364003</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="59" t="s">
         <v>289</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -16070,8 +16082,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16107,7 +16119,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>83</v>
@@ -16119,7 +16131,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -16143,7 +16155,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -16155,7 +16167,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>80</v>
@@ -16190,7 +16202,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>80</v>
@@ -16205,7 +16217,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -16217,7 +16229,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -16229,7 +16241,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -16241,7 +16253,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -16253,7 +16265,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -16265,7 +16277,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -16274,10 +16286,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="56"/>
     </row>
@@ -16289,7 +16301,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -16301,7 +16313,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -16310,10 +16322,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -16325,7 +16337,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -16337,7 +16349,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -16349,7 +16361,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -16361,7 +16373,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -16373,7 +16385,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -16382,10 +16394,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -16394,10 +16406,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -16409,7 +16421,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -16421,7 +16433,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -16435,108 +16447,108 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="66">
+        <v>290</v>
+      </c>
+      <c r="D32" s="62">
         <v>63476009</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D37" s="64">
+        <v>309</v>
+      </c>
+      <c r="D37" s="60">
         <v>119364003</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -16550,8 +16562,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16604,7 +16616,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -16627,7 +16639,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -16651,7 +16663,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>80</v>
@@ -16701,7 +16713,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -16713,7 +16725,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -16725,7 +16737,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -16737,7 +16749,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -16749,7 +16761,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -16761,7 +16773,7 @@
         <v>93</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -16773,7 +16785,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -16785,7 +16797,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -16797,7 +16809,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -16806,10 +16818,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -16821,7 +16833,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -16833,7 +16845,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -16845,7 +16857,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -16857,7 +16869,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -16869,7 +16881,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -16878,10 +16890,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -16890,10 +16902,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -16905,7 +16917,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -16917,7 +16929,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -16951,36 +16963,36 @@
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="68">
+        <v>283</v>
+      </c>
+      <c r="D38" s="64">
         <v>57371000237100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="68">
+        <v>329</v>
+      </c>
+      <c r="D39" s="64">
         <v>119361006</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="65" t="s">
         <v>331</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -17042,8 +17054,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17103,7 +17115,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -17126,7 +17138,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -17160,7 +17172,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -17175,7 +17187,7 @@
         <v>123</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -17187,7 +17199,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -17199,7 +17211,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -17211,7 +17223,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -17223,7 +17235,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -17235,7 +17247,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -17247,7 +17259,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -17259,7 +17271,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -17271,7 +17283,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -17280,10 +17292,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -17295,7 +17307,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -17307,7 +17319,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -17319,7 +17331,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -17331,7 +17343,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -17343,7 +17355,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -17352,10 +17364,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -17364,10 +17376,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -17379,7 +17391,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -17391,7 +17403,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -17405,607 +17417,607 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -18021,8 +18033,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18082,7 +18094,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -18105,7 +18117,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>475</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -18117,7 +18129,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>80</v>
@@ -18140,7 +18152,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -18152,10 +18164,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -18164,10 +18176,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -18176,10 +18188,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -18191,7 +18203,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -18203,7 +18215,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -18215,7 +18227,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -18227,7 +18239,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -18239,7 +18251,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -18251,7 +18263,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -18263,7 +18275,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -18275,7 +18287,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -18287,7 +18299,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -18296,10 +18308,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -18311,7 +18323,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -18323,7 +18335,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -18335,7 +18347,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -18347,7 +18359,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -18359,7 +18371,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -18371,7 +18383,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -18383,7 +18395,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -18395,7 +18407,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -18407,7 +18419,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -18419,7 +18431,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -18431,7 +18443,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -18443,7 +18455,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -18455,7 +18467,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -18467,7 +18479,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -18479,7 +18491,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -18491,7 +18503,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -18503,7 +18515,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="11"/>
     </row>
@@ -18515,7 +18527,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="11"/>
     </row>
@@ -18527,7 +18539,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -18541,26 +18553,26 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D44" s="66">
+        <v>327</v>
+      </c>
+      <c r="D44" s="62">
         <v>26604007</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" s="66">
+        <v>328</v>
+      </c>
+      <c r="D45" s="62">
         <v>271000000</v>
       </c>
     </row>
@@ -18645,7 +18657,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>83</v>
@@ -18657,7 +18669,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -18681,7 +18693,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -18693,10 +18705,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="23"/>
     </row>
@@ -18705,10 +18717,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -18717,10 +18729,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="11"/>
     </row>
@@ -18729,10 +18741,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -18741,7 +18753,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>80</v>
@@ -18756,7 +18768,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -18768,7 +18780,7 @@
         <v>30</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -18780,7 +18792,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -18792,7 +18804,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -18804,7 +18816,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -18816,7 +18828,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -18828,7 +18840,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -18840,7 +18852,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -18852,7 +18864,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -18864,7 +18876,7 @@
         <v>84</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -18876,7 +18888,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -18888,7 +18900,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -18900,7 +18912,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -18912,7 +18924,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -18924,7 +18936,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -18936,7 +18948,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -18948,7 +18960,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -18960,7 +18972,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -18972,7 +18984,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -19055,7 +19067,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19110,7 +19122,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -19134,7 +19146,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -19169,7 +19181,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -19184,7 +19196,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -19196,7 +19208,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -19205,10 +19217,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -19220,7 +19232,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -19232,7 +19244,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -19244,7 +19256,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -19256,7 +19268,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -19268,7 +19280,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -19280,7 +19292,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -19289,10 +19301,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -19304,7 +19316,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -19316,7 +19328,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -19328,7 +19340,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -19340,7 +19352,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -19352,7 +19364,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -19361,10 +19373,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -19373,10 +19385,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -19388,7 +19400,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -19400,7 +19412,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -19419,45 +19431,45 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="63">
+        <v>285</v>
+      </c>
+      <c r="D33" s="59">
         <v>119364003</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="59" t="s">
         <v>289</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35"/>
     </row>
@@ -19512,8 +19524,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19568,7 +19580,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -19591,7 +19603,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -19641,7 +19653,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -19653,7 +19665,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -19665,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -19677,7 +19689,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -19689,7 +19701,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -19701,7 +19713,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -19713,7 +19725,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -19725,7 +19737,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -19737,7 +19749,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -19746,10 +19758,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -19761,7 +19773,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -19773,7 +19785,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -19785,7 +19797,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -19797,7 +19809,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -19809,7 +19821,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -19818,10 +19830,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -19830,10 +19842,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -19845,7 +19857,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -19857,19 +19869,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -19881,7 +19893,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -19893,7 +19905,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -19905,7 +19917,7 @@
         <v>46</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -19917,7 +19929,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -19929,7 +19941,7 @@
         <v>48</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -19942,37 +19954,37 @@
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D38" s="63">
+        <v>285</v>
+      </c>
+      <c r="D38" s="59">
         <v>119364003</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="59" t="s">
         <v>292</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -20061,7 +20073,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -20119,7 +20131,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -20134,7 +20146,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -20146,7 +20158,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -20155,10 +20167,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -20170,7 +20182,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -20182,7 +20194,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -20194,7 +20206,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -20206,7 +20218,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -20218,7 +20230,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -20230,7 +20242,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -20242,7 +20254,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -20251,10 +20263,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -20266,7 +20278,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -20275,10 +20287,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -20290,7 +20302,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -20302,7 +20314,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -20314,7 +20326,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -20326,7 +20338,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -20338,7 +20350,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -20350,7 +20362,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -20362,7 +20374,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -20374,7 +20386,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -20386,7 +20398,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -20398,7 +20410,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -20410,7 +20422,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -20422,7 +20434,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -20434,7 +20446,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -20446,7 +20458,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -20458,7 +20470,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -20470,7 +20482,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -20482,7 +20494,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="11"/>
     </row>
@@ -20494,7 +20506,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="11"/>
     </row>
@@ -20506,7 +20518,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -20520,46 +20532,46 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="66">
+        <v>290</v>
+      </c>
+      <c r="D44" s="62">
         <v>63476009</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="65">
+        <v>285</v>
+      </c>
+      <c r="D46" s="61">
         <v>119364003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -20622,7 +20634,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C43" sqref="C43:D47"/>
     </sheetView>
   </sheetViews>
@@ -20680,7 +20692,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>79</v>
@@ -20738,7 +20750,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -20753,7 +20765,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -20765,7 +20777,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -20774,10 +20786,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -20789,7 +20801,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -20801,7 +20813,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -20813,7 +20825,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -20825,7 +20837,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -20837,7 +20849,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -20849,7 +20861,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -20861,7 +20873,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -20873,7 +20885,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -20885,7 +20897,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -20894,10 +20906,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -20909,7 +20921,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -20921,7 +20933,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -20933,7 +20945,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -20945,7 +20957,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -20957,7 +20969,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -20969,7 +20981,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -20981,7 +20993,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -20993,7 +21005,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -21005,7 +21017,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -21017,7 +21029,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -21029,7 +21041,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -21041,7 +21053,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -21053,7 +21065,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -21065,7 +21077,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -21077,7 +21089,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -21089,7 +21101,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -21101,7 +21113,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="11"/>
     </row>
@@ -21113,7 +21125,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="11"/>
     </row>
@@ -21125,7 +21137,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -21139,45 +21151,45 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="66">
+        <v>290</v>
+      </c>
+      <c r="D44" s="62">
         <v>63476009</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="C46" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="65">
+        <v>285</v>
+      </c>
+      <c r="D46" s="61">
         <v>119364003</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="C47" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="61" t="s">
         <v>295</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -21235,8 +21247,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21293,7 +21305,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>79</v>
@@ -21316,7 +21328,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -21366,7 +21378,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -21378,7 +21390,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -21390,7 +21402,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -21402,7 +21414,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -21414,7 +21426,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -21426,7 +21438,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -21438,7 +21450,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -21450,7 +21462,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -21462,7 +21474,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -21471,10 +21483,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -21486,7 +21498,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -21498,7 +21510,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -21510,7 +21522,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -21522,7 +21534,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -21534,7 +21546,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -21543,10 +21555,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -21555,10 +21567,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -21570,7 +21582,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -21582,7 +21594,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -21600,161 +21612,161 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="66">
+        <v>290</v>
+      </c>
+      <c r="D32" s="62">
         <v>63476009</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D37" s="64">
+        <v>309</v>
+      </c>
+      <c r="D37" s="60">
         <v>119364003</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="67"/>
+      <c r="C48" s="63"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21770,7 +21782,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -21828,7 +21840,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>79</v>
@@ -21901,7 +21913,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -21913,7 +21925,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -21925,7 +21937,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -21937,7 +21949,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -21949,7 +21961,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -21961,7 +21973,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -21973,7 +21985,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -21985,7 +21997,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -21994,10 +22006,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -22009,7 +22021,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -22021,7 +22033,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -22033,7 +22045,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -22045,7 +22057,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -22057,7 +22069,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -22066,10 +22078,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -22078,10 +22090,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -22093,7 +22105,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -22105,7 +22117,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -22117,7 +22129,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -22129,7 +22141,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -22141,7 +22153,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -22153,7 +22165,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -22165,7 +22177,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -22177,7 +22189,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -22191,149 +22203,149 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" s="66">
+        <v>290</v>
+      </c>
+      <c r="D36" s="62">
         <v>63476009</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D41" s="64">
+        <v>309</v>
+      </c>
+      <c r="D41" s="60">
         <v>119364003</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -22407,7 +22419,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>79</v>
@@ -22465,7 +22477,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -22480,7 +22492,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -22492,7 +22504,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -22501,10 +22513,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -22516,7 +22528,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -22528,7 +22540,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -22540,7 +22552,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -22552,7 +22564,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -22564,7 +22576,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -22576,7 +22588,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -22588,7 +22600,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -22600,7 +22612,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -22612,7 +22624,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -22621,10 +22633,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -22636,7 +22648,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -22648,7 +22660,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -22660,7 +22672,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -22672,7 +22684,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -22684,7 +22696,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -22696,7 +22708,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -22708,7 +22720,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -22720,7 +22732,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -22732,7 +22744,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -22744,7 +22756,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -22756,7 +22768,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -22768,7 +22780,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -22780,7 +22792,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -22792,7 +22804,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -22804,7 +22816,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -22816,7 +22828,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -22828,7 +22840,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="11"/>
     </row>
@@ -22840,7 +22852,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="11"/>
     </row>
@@ -22852,7 +22864,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -22866,63 +22878,63 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="66">
+        <v>290</v>
+      </c>
+      <c r="D44" s="62">
         <v>63476009</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>327</v>
+        <v>309</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -22986,7 +22998,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>83</v>
@@ -22997,7 +23009,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>79</v>
@@ -23020,7 +23032,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>80</v>
@@ -23055,7 +23067,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>80</v>
@@ -23070,7 +23082,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="11"/>
     </row>
@@ -23082,7 +23094,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="11"/>
     </row>
@@ -23091,10 +23103,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -23106,7 +23118,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="11"/>
     </row>
@@ -23118,7 +23130,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="11"/>
     </row>
@@ -23130,7 +23142,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="11"/>
     </row>
@@ -23142,7 +23154,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -23154,7 +23166,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -23166,7 +23178,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -23178,7 +23190,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="11"/>
     </row>
@@ -23190,7 +23202,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -23202,7 +23214,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="11"/>
     </row>
@@ -23211,10 +23223,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -23226,7 +23238,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="11"/>
     </row>
@@ -23238,7 +23250,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -23250,7 +23262,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="11"/>
     </row>
@@ -23262,7 +23274,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -23274,7 +23286,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -23286,7 +23298,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -23298,7 +23310,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -23310,7 +23322,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="11"/>
     </row>
@@ -23322,7 +23334,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -23334,7 +23346,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -23346,7 +23358,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="11"/>
     </row>
@@ -23358,7 +23370,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -23370,7 +23382,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -23382,7 +23394,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -23394,7 +23406,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="11"/>
     </row>
@@ -23406,7 +23418,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -23418,7 +23430,7 @@
         <v>74</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="11"/>
     </row>
@@ -23430,7 +23442,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="11"/>
     </row>
@@ -23442,7 +23454,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -23455,73 +23467,73 @@
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="C43" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="C44" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D44" s="66">
+        <v>327</v>
+      </c>
+      <c r="D44" s="62">
         <v>113075003</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="C45" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="D45" s="66">
+        <v>328</v>
+      </c>
+      <c r="D45" s="62">
         <v>20109005</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="C46" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="C47" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="D47" s="64" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="C48" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="C49" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="C50" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>327</v>
+        <v>309</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
